--- a/biology/Botanique/Joseph_Woods/Joseph_Woods.xlsx
+++ b/biology/Botanique/Joseph_Woods/Joseph_Woods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Woods est un géologue, botaniste et architecte quaker britannique, né le 24 août 1776 à Stoke Newington, village à quelques kilomètres de la Cité de Londres et mort le 9 janvier 1864 à Lewes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à son domicile où ses parents, Joseph et Margaret Woods, lui enseignent le latin, le grec ancien et moderne, l’hébreu, l’italien et le français. Vers seize ans, il commence à étudier l’architecture auprès de Daniel Asher Alexander (1768-1846). Son père, Joseph Woods l’ancien, est l’un des fondateurs du mouvement en faveur de l’abolition de l'esclavage, de même que l’un de ses oncles maternels, Samuel Hoare le Jeune. Ces deux hommes font partie des quatre quakers qui fondent le London Abolition Committee, qui est à l’origine de la Society for Effecting the Abolition of the Slave Trade.
 En 1806, Joseph Woods fonde la London Architectural Society et en devient son premier président. Avant cette date, on le crédite souvent de la conception et de la construction de la Clissold House à Stoke Newington, mais ceci semble improbable. En 1816, aussitôt la fin des guerres napoléoniennes, il se rend sur le continent et visite la France, la Suisse et l’Italie pour y étudier l’architecture et la botanique. Il relate son expérience dans Letters of an Architect, un livre qui paraît en 1828.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Joseph Woods » (voir la liste des auteurs). (version du 20 janvier 2007)</t>
         </is>
